--- a/docs/LOHU_RequirementOutline.xlsx
+++ b/docs/LOHU_RequirementOutline.xlsx
@@ -85,10 +85,10 @@
     <t>1. Quản lý tài khoản</t>
   </si>
   <si>
-    <t>+ Đăng ký sử dụng (Tương ứng với đối tượng người dùng)</t>
-  </si>
-  <si>
-    <t>+ Đăng nhập sử dụng: Mỗi đối tượng người dùng có các chức năng khác nhau</t>
+    <t>+ Đăng ký sử dụng</t>
+  </si>
+  <si>
+    <t>+ Đăng nhập sử dụng</t>
   </si>
   <si>
     <t>+ Đăng xuất</t>
@@ -1385,8 +1385,8 @@
   <sheetPr/>
   <dimension ref="B1:N86"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A47" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="M33" sqref="M33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.18518518518519" defaultRowHeight="14.4"/>
